--- a/data/trans_orig/P19C04-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>109068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92267</v>
+        <v>91614</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126353</v>
+        <v>128595</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2754826142340713</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2330473161526345</v>
+        <v>0.2313988694820737</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3191411385792158</v>
+        <v>0.3248039014821426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -765,19 +765,19 @@
         <v>139943</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>118868</v>
+        <v>119546</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>161818</v>
+        <v>164756</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1915441858914343</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1626976122482708</v>
+        <v>0.1636261151580731</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2214844860019839</v>
+        <v>0.2255053312629035</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>245</v>
@@ -786,19 +786,19 @@
         <v>249011</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>220988</v>
+        <v>221834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>275895</v>
+        <v>277397</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2210442750077318</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1961686495615955</v>
+        <v>0.1969198053702464</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2449089788024693</v>
+        <v>0.2462417563518572</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>286847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269562</v>
+        <v>267320</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>303648</v>
+        <v>304301</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7245173857659286</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6808588614207843</v>
+        <v>0.6751960985178573</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7669526838473658</v>
+        <v>0.7686011305179263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>566</v>
@@ -836,19 +836,19 @@
         <v>590663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>568788</v>
+        <v>565850</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>611738</v>
+        <v>611060</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8084558141085657</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7785155139980159</v>
+        <v>0.774494668737096</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8373023877517292</v>
+        <v>0.8363738848419268</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>850</v>
@@ -857,19 +857,19 @@
         <v>877510</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>850626</v>
+        <v>849124</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>905533</v>
+        <v>904687</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7789557249922682</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7550910211975306</v>
+        <v>0.7537582436481428</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8038313504384044</v>
+        <v>0.8030801946297536</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>191684</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>168510</v>
+        <v>165533</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>216568</v>
+        <v>213940</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2398678879533732</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2108684627037935</v>
+        <v>0.2071422291478255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.271006868122507</v>
+        <v>0.2677182566158301</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>132</v>
@@ -982,19 +982,19 @@
         <v>136828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>116617</v>
+        <v>117206</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159789</v>
+        <v>159059</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1609847420979534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1372049281098455</v>
+        <v>0.1378986735951597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1879998419704442</v>
+        <v>0.187140178425889</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>320</v>
@@ -1003,19 +1003,19 @@
         <v>328512</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>296658</v>
+        <v>297224</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>362285</v>
+        <v>362268</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1992108513860026</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1798940249723385</v>
+        <v>0.1802371558296725</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2196905175776916</v>
+        <v>0.2196803715340485</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>607441</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>582557</v>
+        <v>585185</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>630615</v>
+        <v>633592</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7601321120466268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.728993131877493</v>
+        <v>0.73228174338417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7891315372962064</v>
+        <v>0.7928577708521745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>695</v>
@@ -1053,19 +1053,19 @@
         <v>713116</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>690155</v>
+        <v>690885</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>733327</v>
+        <v>732738</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8390152579020466</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8120001580295555</v>
+        <v>0.812859821574111</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8627950718901541</v>
+        <v>0.8621013264048404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1287</v>
@@ -1074,19 +1074,19 @@
         <v>1320557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1286784</v>
+        <v>1286801</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1352411</v>
+        <v>1351845</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8007891486139974</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7803094824223086</v>
+        <v>0.7803196284659518</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8201059750276616</v>
+        <v>0.8197628441703275</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>148408</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127156</v>
+        <v>128067</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>173297</v>
+        <v>171990</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1664616276193926</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1426250230483657</v>
+        <v>0.1436470754705605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1943788255402845</v>
+        <v>0.1929133378104273</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -1199,19 +1199,19 @@
         <v>87327</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71122</v>
+        <v>71364</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106788</v>
+        <v>105895</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1052604442165584</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08572853480203092</v>
+        <v>0.0860193123909738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.128718610485187</v>
+        <v>0.1276427494491395</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>235</v>
@@ -1220,19 +1220,19 @@
         <v>235734</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>203639</v>
+        <v>207939</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>263518</v>
+        <v>268264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1369618638641943</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1183148466204211</v>
+        <v>0.1208128253904656</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.15310409739178</v>
+        <v>0.1558619956120003</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>743134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>718245</v>
+        <v>719552</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>764386</v>
+        <v>763475</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8335383723806074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8056211744597155</v>
+        <v>0.8070866621895727</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8573749769516343</v>
+        <v>0.8563529245294396</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>733</v>
@@ -1270,19 +1270,19 @@
         <v>742297</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>722836</v>
+        <v>723729</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>758502</v>
+        <v>758260</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8947395557834417</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8712813895148132</v>
+        <v>0.8723572505508604</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9142714651979691</v>
+        <v>0.9139806876090262</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1461</v>
@@ -1291,19 +1291,19 @@
         <v>1485432</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1457648</v>
+        <v>1452902</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1517527</v>
+        <v>1513227</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8630381361358057</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.84689590260822</v>
+        <v>0.8441380043879994</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.881685153379579</v>
+        <v>0.8791871746095342</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>36870</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26648</v>
+        <v>26991</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49634</v>
+        <v>50223</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1084530862963299</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07838486114128913</v>
+        <v>0.07939336609211881</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1459982469332047</v>
+        <v>0.1477325712831285</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1416,19 +1416,19 @@
         <v>26757</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18489</v>
+        <v>17765</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37598</v>
+        <v>36681</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09603472623738134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06635981615798803</v>
+        <v>0.06375921220392762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1349444263886284</v>
+        <v>0.1316516467717564</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -1437,19 +1437,19 @@
         <v>63627</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50566</v>
+        <v>48850</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80531</v>
+        <v>78855</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1028596187580066</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08174406283423748</v>
+        <v>0.07897108350636624</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1301864080879941</v>
+        <v>0.1274763753763383</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>303092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>290328</v>
+        <v>289739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>313314</v>
+        <v>312971</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8915469137036701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8540017530667954</v>
+        <v>0.8522674287168716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.921615138858711</v>
+        <v>0.9206066339078812</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>251</v>
@@ -1487,19 +1487,19 @@
         <v>251865</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>241024</v>
+        <v>241941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>260133</v>
+        <v>260857</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9039652737626187</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8650555736113715</v>
+        <v>0.8683483532282436</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.933640183842012</v>
+        <v>0.9362407877960723</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>545</v>
@@ -1508,19 +1508,19 @@
         <v>554957</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>538053</v>
+        <v>539729</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>568018</v>
+        <v>569734</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8971403812419935</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8698135919120057</v>
+        <v>0.8725236246236618</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.918255937165762</v>
+        <v>0.9210289164936338</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>486029</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>447319</v>
+        <v>446792</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>526039</v>
+        <v>524474</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2002970392432441</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.184344189178569</v>
+        <v>0.1841268502161437</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2167854665268241</v>
+        <v>0.2161403684004973</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>383</v>
@@ -1633,19 +1633,19 @@
         <v>390855</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>352182</v>
+        <v>356757</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>430588</v>
+        <v>426873</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1453644323359792</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1309814087070522</v>
+        <v>0.1326827690552181</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1601417323506991</v>
+        <v>0.158760065276733</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>863</v>
@@ -1654,19 +1654,19 @@
         <v>876885</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>818995</v>
+        <v>822309</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>928070</v>
+        <v>934780</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1714225938598957</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.160105773406559</v>
+        <v>0.1607535394617079</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1814287429498717</v>
+        <v>0.1827405485967935</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1940514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1900504</v>
+        <v>1902069</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1979224</v>
+        <v>1979751</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.799702960756756</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7832145334731758</v>
+        <v>0.7838596315995026</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8156558108214309</v>
+        <v>0.8158731497838563</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2245</v>
@@ -1704,19 +1704,19 @@
         <v>2297941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2258208</v>
+        <v>2261923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2336614</v>
+        <v>2332039</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8546355676640208</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8398582676493009</v>
+        <v>0.841239934723267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8690185912929478</v>
+        <v>0.8673172309447819</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4143</v>
@@ -1725,19 +1725,19 @@
         <v>4238455</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4187270</v>
+        <v>4180560</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4296345</v>
+        <v>4293031</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8285774061401042</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8185712570501283</v>
+        <v>0.8172594514032065</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.839894226593441</v>
+        <v>0.8392464605382921</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>271904</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>245699</v>
+        <v>245425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>300529</v>
+        <v>299911</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3294247114962938</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2976763975989369</v>
+        <v>0.2973435771885252</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3641050617424028</v>
+        <v>0.3633559404036359</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -2090,19 +2090,19 @@
         <v>219506</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>195468</v>
+        <v>192356</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>244565</v>
+        <v>246315</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2316853087152707</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2063132185871954</v>
+        <v>0.2030283381388343</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.258134361712324</v>
+        <v>0.2599818567556243</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>458</v>
@@ -2111,19 +2111,19 @@
         <v>491410</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>454459</v>
+        <v>452783</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>532705</v>
+        <v>528129</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2771907924896378</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2563472567565072</v>
+        <v>0.2554021248223219</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.300483785620449</v>
+        <v>0.2979026108242165</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>553487</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>524862</v>
+        <v>525480</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>579692</v>
+        <v>579966</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6705752885037063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.635894938257597</v>
+        <v>0.6366440595963641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7023236024010631</v>
+        <v>0.7026564228114748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>669</v>
@@ -2161,19 +2161,19 @@
         <v>727927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>702868</v>
+        <v>701118</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>751965</v>
+        <v>755077</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7683146912847293</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7418656382876756</v>
+        <v>0.7400181432443759</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7936867814128047</v>
+        <v>0.796971661861166</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1188</v>
@@ -2182,19 +2182,19 @@
         <v>1281414</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1240119</v>
+        <v>1244695</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1318365</v>
+        <v>1320041</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7228092075103622</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.699516214379551</v>
+        <v>0.7020973891757836</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7436527432434927</v>
+        <v>0.7445978751776785</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>220738</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>194310</v>
+        <v>198248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>248270</v>
+        <v>250355</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2625414606290931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2311087674947837</v>
+        <v>0.2357924067690977</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2952874424768835</v>
+        <v>0.297767412117118</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -2307,19 +2307,19 @@
         <v>173369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148620</v>
+        <v>150659</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>198497</v>
+        <v>200584</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1800740632919979</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.154367385453365</v>
+        <v>0.1564856604052514</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2061734268525237</v>
+        <v>0.2083407132232149</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>372</v>
@@ -2328,19 +2328,19 @@
         <v>394107</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>361740</v>
+        <v>359155</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>433563</v>
+        <v>429169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2185186667719608</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2005723561474771</v>
+        <v>0.1991390433500539</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2403956780094093</v>
+        <v>0.2379594405747379</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>620035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>592503</v>
+        <v>590418</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>646463</v>
+        <v>642525</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7374585393709069</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7047125575231166</v>
+        <v>0.7022325878828819</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7688912325052163</v>
+        <v>0.7642075932309023</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>735</v>
@@ -2378,19 +2378,19 @@
         <v>789398</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>764270</v>
+        <v>762183</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>814147</v>
+        <v>812108</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8199259367080021</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7938265731474763</v>
+        <v>0.791659286776785</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.845632614546635</v>
+        <v>0.8435143395947484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1324</v>
@@ -2399,19 +2399,19 @@
         <v>1409433</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1369977</v>
+        <v>1374371</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1441800</v>
+        <v>1444385</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7814813332280391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7596043219905906</v>
+        <v>0.7620405594252622</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7994276438525227</v>
+        <v>0.8008609566499461</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>162036</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139389</v>
+        <v>139060</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185312</v>
+        <v>186421</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2077977777522945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1787552173903534</v>
+        <v>0.1783327557071339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2376473114345455</v>
+        <v>0.2390693893554985</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -2524,19 +2524,19 @@
         <v>110136</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91771</v>
+        <v>92465</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130606</v>
+        <v>131366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1368088244329669</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1139964824379616</v>
+        <v>0.1148591943029966</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1622371250073357</v>
+        <v>0.1631815001053199</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>254</v>
@@ -2545,19 +2545,19 @@
         <v>272172</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>242448</v>
+        <v>243163</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>301991</v>
+        <v>304275</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1717376472100509</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1529821248837265</v>
+        <v>0.1534336445776308</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1905531285662966</v>
+        <v>0.1919947817750593</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>617741</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>594465</v>
+        <v>593356</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>640388</v>
+        <v>640717</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7922022222477055</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7623526885654546</v>
+        <v>0.7609306106445014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8212447826096465</v>
+        <v>0.8216672442928661</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>650</v>
@@ -2595,19 +2595,19 @@
         <v>694897</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>674427</v>
+        <v>673667</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>713262</v>
+        <v>712568</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8631911755670331</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8377628749926643</v>
+        <v>0.83681849989468</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8860035175620384</v>
+        <v>0.8851408056970034</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1234</v>
@@ -2616,19 +2616,19 @@
         <v>1312638</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1282819</v>
+        <v>1280535</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1342362</v>
+        <v>1341647</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8282623527899492</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8094468714337034</v>
+        <v>0.8080052182249408</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8470178751162736</v>
+        <v>0.8465663554223688</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>63436</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48335</v>
+        <v>47204</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79970</v>
+        <v>80522</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1396663816247816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1064193284997667</v>
+        <v>0.1039281586347738</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.176068806870888</v>
+        <v>0.1772836549909083</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -2741,19 +2741,19 @@
         <v>40063</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29714</v>
+        <v>28559</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55316</v>
+        <v>53638</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09643006212398091</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0715210958961173</v>
+        <v>0.06874015555759236</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1331455688787087</v>
+        <v>0.1291052573459313</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -2762,19 +2762,19 @@
         <v>103499</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85845</v>
+        <v>84018</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>126302</v>
+        <v>124634</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1190112691414902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09871124621363421</v>
+        <v>0.09661113025137982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.145232471370454</v>
+        <v>0.1433140315847611</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>390762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>374228</v>
+        <v>373676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>405863</v>
+        <v>406994</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8603336183752184</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.823931193129112</v>
+        <v>0.8227163450090917</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8935806715002332</v>
+        <v>0.8960718413652263</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -2812,19 +2812,19 @@
         <v>375394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>360141</v>
+        <v>361819</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>385743</v>
+        <v>386898</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9035699378760191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8668544311212912</v>
+        <v>0.8708947426540689</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9284789041038825</v>
+        <v>0.9312598444424081</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>700</v>
@@ -2833,19 +2833,19 @@
         <v>766156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>743353</v>
+        <v>745021</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>783810</v>
+        <v>785637</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8809887308585098</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8547675286295461</v>
+        <v>0.8566859684152391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9012887537863659</v>
+        <v>0.9033888697486203</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>718114</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>671302</v>
+        <v>665489</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>768986</v>
+        <v>768151</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2476136696671177</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2314723765889232</v>
+        <v>0.2294679089737325</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2651546880792648</v>
+        <v>0.2648667344449975</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>506</v>
@@ -2958,19 +2958,19 @@
         <v>543074</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>499149</v>
+        <v>500876</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>584707</v>
+        <v>592385</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1734677844636355</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1594373891883073</v>
+        <v>0.1599890965981337</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1867661631985613</v>
+        <v>0.1892185230064131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1178</v>
@@ -2979,19 +2979,19 @@
         <v>1261188</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1198614</v>
+        <v>1200365</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1334767</v>
+        <v>1326412</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2091234786326593</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1987477091133358</v>
+        <v>0.1990381625173866</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2213238523978263</v>
+        <v>0.2199385403768081</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2182026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2131154</v>
+        <v>2131989</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2228838</v>
+        <v>2234651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7523863303328823</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7348453119207351</v>
+        <v>0.7351332655550025</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7685276234110767</v>
+        <v>0.7705320910262674</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2395</v>
@@ -3029,19 +3029,19 @@
         <v>2587616</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2545983</v>
+        <v>2538305</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2631541</v>
+        <v>2629814</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8265322155363645</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8132338368014387</v>
+        <v>0.8107814769935868</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8405626108116924</v>
+        <v>0.8400109034018663</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4446</v>
@@ -3050,19 +3050,19 @@
         <v>4769642</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4696063</v>
+        <v>4704418</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4832216</v>
+        <v>4830465</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7908765213673407</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.778676147602174</v>
+        <v>0.7800614596231908</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8012522908866645</v>
+        <v>0.800961837482612</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>200596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>177932</v>
+        <v>176153</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>227241</v>
+        <v>224621</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2557441755544988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2268488378266989</v>
+        <v>0.224581066556779</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2897139404143602</v>
+        <v>0.2863733850856798</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -3415,19 +3415,19 @@
         <v>153568</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131788</v>
+        <v>131693</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>178558</v>
+        <v>178341</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1666287483977189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1429961978582314</v>
+        <v>0.1428928485907892</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1937438246977351</v>
+        <v>0.193508478057305</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>334</v>
@@ -3436,19 +3436,19 @@
         <v>354165</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>322893</v>
+        <v>319890</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>387164</v>
+        <v>390483</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2076015528419363</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1892712435929905</v>
+        <v>0.1875108064705866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2269449725046538</v>
+        <v>0.2288903696676196</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>583767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>557122</v>
+        <v>559742</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>606431</v>
+        <v>608210</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7442558244455012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7102860595856398</v>
+        <v>0.7136266149143202</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.773151162173301</v>
+        <v>0.775418933443221</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>740</v>
@@ -3486,19 +3486,19 @@
         <v>768051</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>743061</v>
+        <v>743278</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>789831</v>
+        <v>789926</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8333712516022811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8062561753022647</v>
+        <v>0.806491521942695</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8570038021417685</v>
+        <v>0.8571071514092108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1289</v>
@@ -3507,19 +3507,19 @@
         <v>1351817</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1318818</v>
+        <v>1315499</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1383089</v>
+        <v>1386092</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7923984471580637</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7730550274953465</v>
+        <v>0.7711096303323804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.81072875640701</v>
+        <v>0.8124891935294143</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>111239</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91601</v>
+        <v>93899</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>130418</v>
+        <v>131521</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1557284520764169</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1282355675348</v>
+        <v>0.1314526515968195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.182576565923397</v>
+        <v>0.1841207821111905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -3632,19 +3632,19 @@
         <v>110790</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91087</v>
+        <v>89490</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>133024</v>
+        <v>134350</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1314732256686937</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1080917954387902</v>
+        <v>0.1061967759373703</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1578582668070823</v>
+        <v>0.1594313094969914</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -3653,19 +3653,19 @@
         <v>222030</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>197143</v>
+        <v>194967</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>250946</v>
+        <v>250021</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.142600989348283</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1266175816781777</v>
+        <v>0.1252197870648898</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1611728412902314</v>
+        <v>0.1605785715091359</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>603078</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>583899</v>
+        <v>582796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>622716</v>
+        <v>620418</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8442715479235831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.817423434076603</v>
+        <v>0.8158792178888095</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8717644324652</v>
+        <v>0.8685473484031804</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>699</v>
@@ -3703,19 +3703,19 @@
         <v>731892</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>709658</v>
+        <v>708332</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>751595</v>
+        <v>753192</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8685267743313063</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8421417331929176</v>
+        <v>0.8405686905030085</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8919082045612098</v>
+        <v>0.8938032240626299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1281</v>
@@ -3724,19 +3724,19 @@
         <v>1334969</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1306053</v>
+        <v>1306978</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1359856</v>
+        <v>1362032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.857399010651717</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8388271587097686</v>
+        <v>0.8394214284908637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8733824183218223</v>
+        <v>0.8747802129351101</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>99904</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82149</v>
+        <v>80579</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121663</v>
+        <v>118388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1395127335435362</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1147187753043449</v>
+        <v>0.1125263174797342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1698986779444309</v>
+        <v>0.165325969605957</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -3849,19 +3849,19 @@
         <v>66581</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52323</v>
+        <v>52156</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83815</v>
+        <v>84216</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1010386977299596</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07940119881260778</v>
+        <v>0.07914789747654692</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1271915014603464</v>
+        <v>0.1277998948661676</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>156</v>
@@ -3870,19 +3870,19 @@
         <v>166485</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142067</v>
+        <v>143847</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192146</v>
+        <v>192103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1210748513276075</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1033168894826541</v>
+        <v>0.1046115798814638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1397362094784958</v>
+        <v>0.1397052716003749</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>616187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>594428</v>
+        <v>597703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>633942</v>
+        <v>635512</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8604872664564638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8301013220555691</v>
+        <v>0.8346740303940433</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8852812246956553</v>
+        <v>0.8874736825202658</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>568</v>
@@ -3920,19 +3920,19 @@
         <v>592388</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>575154</v>
+        <v>574753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>606646</v>
+        <v>606813</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8989613022700405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8728084985396533</v>
+        <v>0.8722001051338326</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9205988011873921</v>
+        <v>0.9208521025234532</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1155</v>
@@ -3941,19 +3941,19 @@
         <v>1208575</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1182914</v>
+        <v>1182957</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1232993</v>
+        <v>1231213</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8789251486723926</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8602637905215043</v>
+        <v>0.8602947283996253</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8966831105173459</v>
+        <v>0.8953884201185363</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>61375</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48043</v>
+        <v>47029</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78879</v>
+        <v>77685</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1428154165384257</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.111792730870505</v>
+        <v>0.109431314748236</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1835443045537681</v>
+        <v>0.1807655505133416</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -4066,19 +4066,19 @@
         <v>40385</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29340</v>
+        <v>29127</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54261</v>
+        <v>53404</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09362427701207202</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06801757329690886</v>
+        <v>0.06752557500203786</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1257938682409675</v>
+        <v>0.1238064010023052</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -4087,19 +4087,19 @@
         <v>101761</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82417</v>
+        <v>83503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122729</v>
+        <v>123871</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1181742077558248</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09571077835322397</v>
+        <v>0.09697132926664485</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1425246650766424</v>
+        <v>0.1438509191213575</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>368379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>350875</v>
+        <v>352069</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>381711</v>
+        <v>382725</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8571845834615743</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8164556954462319</v>
+        <v>0.8192344494866582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.888207269129495</v>
+        <v>0.8905686852517639</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -4137,19 +4137,19 @@
         <v>390967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>377091</v>
+        <v>377948</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>402012</v>
+        <v>402225</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.906375722987928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8742061317590328</v>
+        <v>0.8761935989976947</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9319824267030914</v>
+        <v>0.9324744249979621</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>707</v>
@@ -4158,19 +4158,19 @@
         <v>759346</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>738378</v>
+        <v>737236</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>778690</v>
+        <v>777604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8818257922441752</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.857475334923358</v>
+        <v>0.8561490808786426</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9042892216467764</v>
+        <v>0.9030286707333552</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>473115</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>434841</v>
+        <v>430760</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>515896</v>
+        <v>513391</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1789036125496719</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1644307087756336</v>
+        <v>0.162887470757398</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1950807861778993</v>
+        <v>0.1941334921227498</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>343</v>
@@ -4283,19 +4283,19 @@
         <v>371325</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>333228</v>
+        <v>335188</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>407376</v>
+        <v>409818</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1300784197828153</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1167326414989774</v>
+        <v>0.1174194047081382</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1427075878684942</v>
+        <v>0.1435630146443936</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>795</v>
@@ -4304,19 +4304,19 @@
         <v>844440</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>791949</v>
+        <v>788107</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>902414</v>
+        <v>896900</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.153558326026422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1440130641890193</v>
+        <v>0.1433144206168423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1641006331238439</v>
+        <v>0.1630979305690251</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2171411</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2128630</v>
+        <v>2131135</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2209685</v>
+        <v>2213766</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8210963874503281</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8049192138221003</v>
+        <v>0.8058665078772501</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8355692912243664</v>
+        <v>0.8371125292426019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2373</v>
@@ -4354,19 +4354,19 @@
         <v>2483297</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2447246</v>
+        <v>2444804</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2521394</v>
+        <v>2519434</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8699215802171848</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8572924121315056</v>
+        <v>0.8564369853556062</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8832673585010223</v>
+        <v>0.8825805952918617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4432</v>
@@ -4375,19 +4375,19 @@
         <v>4654708</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4596734</v>
+        <v>4602248</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4707199</v>
+        <v>4711041</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8464416739735781</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8358993668761562</v>
+        <v>0.8369020694309748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8559869358109808</v>
+        <v>0.8566855793831576</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>144814</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>126037</v>
+        <v>126043</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>166689</v>
+        <v>169362</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3210355781828508</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2794093565128888</v>
+        <v>0.2794225863712713</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3695294820969473</v>
+        <v>0.3754557603574903</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>171</v>
@@ -4740,19 +4740,19 @@
         <v>106479</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91870</v>
+        <v>92241</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122750</v>
+        <v>122598</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1807204612956174</v>
+        <v>0.1807204612956173</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1559244086559519</v>
+        <v>0.1565549887432306</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2083366319318878</v>
+        <v>0.2080773361895272</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>326</v>
@@ -4761,19 +4761,19 @@
         <v>251294</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226117</v>
+        <v>224837</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>276801</v>
+        <v>276062</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2415638247305992</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2173623924808785</v>
+        <v>0.2161317945981175</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2660839831224304</v>
+        <v>0.2653733591390461</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>306271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284396</v>
+        <v>281723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>325048</v>
+        <v>325042</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.678964421817149</v>
+        <v>0.6789644218171491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6304705179030528</v>
+        <v>0.6245442396425096</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7205906434871113</v>
+        <v>0.7205774136287286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>646</v>
@@ -4811,19 +4811,19 @@
         <v>482714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>466443</v>
+        <v>466595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>497323</v>
+        <v>496952</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8192795387043827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7916633680681124</v>
+        <v>0.7919226638104728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8440755913440482</v>
+        <v>0.8434450112567695</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>902</v>
@@ -4832,19 +4832,19 @@
         <v>788984</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>763477</v>
+        <v>764216</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>814161</v>
+        <v>815441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7584361752694008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7339160168775697</v>
+        <v>0.7346266408609536</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7826376075191216</v>
+        <v>0.7838682054018824</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>165528</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>143238</v>
+        <v>141291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>190886</v>
+        <v>193711</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1796930859048549</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1554959052578612</v>
+        <v>0.1533829161136319</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2072218251551409</v>
+        <v>0.2102887269443312</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>240</v>
@@ -4957,19 +4957,19 @@
         <v>138594</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>122322</v>
+        <v>122715</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>157849</v>
+        <v>156216</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1274865799912592</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.112518826234464</v>
+        <v>0.1128797283525052</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1451980007746297</v>
+        <v>0.1436957117933287</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>428</v>
@@ -4978,19 +4978,19 @@
         <v>304122</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>275574</v>
+        <v>278086</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>337982</v>
+        <v>335992</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1514327312322573</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1372178901831981</v>
+        <v>0.1384684159814443</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1682927331632046</v>
+        <v>0.1673021202170503</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>755640</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>730282</v>
+        <v>727457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>777930</v>
+        <v>779877</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.820306914095145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7927781748448592</v>
+        <v>0.7897112730556689</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8445040947421392</v>
+        <v>0.846617083886368</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1327</v>
@@ -5028,19 +5028,19 @@
         <v>948534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>929279</v>
+        <v>930912</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>964806</v>
+        <v>964413</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8725134200087408</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8548019992253703</v>
+        <v>0.8563042882066716</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8874811737655359</v>
+        <v>0.8871202716474951</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2019</v>
@@ -5049,19 +5049,19 @@
         <v>1704174</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1670314</v>
+        <v>1672304</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1732722</v>
+        <v>1730210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8485672687677428</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8317072668367954</v>
+        <v>0.8326978797829498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8627821098168021</v>
+        <v>0.8615315840185561</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>135286</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>115315</v>
+        <v>112554</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159129</v>
+        <v>158544</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1319968995248851</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1125113849593918</v>
+        <v>0.109817514087675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1552601169606334</v>
+        <v>0.154689305225663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -5174,19 +5174,19 @@
         <v>105112</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89357</v>
+        <v>88695</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121249</v>
+        <v>121944</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1020400554581987</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08674607347885351</v>
+        <v>0.08610308019673769</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1177056731933673</v>
+        <v>0.118380669503523</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>322</v>
@@ -5195,19 +5195,19 @@
         <v>240398</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>214316</v>
+        <v>214500</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>268806</v>
+        <v>268941</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1169806861205844</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1042889735598135</v>
+        <v>0.1043782978749533</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1308043600687489</v>
+        <v>0.1308699058129682</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>889632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>865789</v>
+        <v>866374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>909603</v>
+        <v>912364</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.868003100475115</v>
+        <v>0.8680031004751149</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8447398830393665</v>
+        <v>0.8453106947743371</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8874886150406081</v>
+        <v>0.8901824859123251</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1325</v>
@@ -5245,19 +5245,19 @@
         <v>924991</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>908854</v>
+        <v>908159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>940746</v>
+        <v>941408</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8979599445418013</v>
+        <v>0.8979599445418014</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8822943268066324</v>
+        <v>0.8816193304964769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9132539265211465</v>
+        <v>0.9138969198032622</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2178</v>
@@ -5266,19 +5266,19 @@
         <v>1814624</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1786216</v>
+        <v>1786081</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1840706</v>
+        <v>1840522</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8830193138794156</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8691956399312509</v>
+        <v>0.8691300941870314</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8957110264401863</v>
+        <v>0.8956217021250463</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>92812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73296</v>
+        <v>76105</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111915</v>
+        <v>113901</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09769671118425519</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.077153943961612</v>
+        <v>0.08011073026668919</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1178053982079303</v>
+        <v>0.1198958072778585</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -5391,19 +5391,19 @@
         <v>63197</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50856</v>
+        <v>51388</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77433</v>
+        <v>77889</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07175434245479859</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05774250041587178</v>
+        <v>0.05834589030248433</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08791714248515183</v>
+        <v>0.08843521525852627</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>201</v>
@@ -5412,19 +5412,19 @@
         <v>156009</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>134898</v>
+        <v>133311</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180711</v>
+        <v>181374</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08521618677248065</v>
+        <v>0.08521618677248066</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07368467360854089</v>
+        <v>0.07281788889755157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09870929424055919</v>
+        <v>0.09907097949725269</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>857186</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>838083</v>
+        <v>836097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>876702</v>
+        <v>873893</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9023032888157448</v>
+        <v>0.902303288815745</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8821946017920699</v>
+        <v>0.8801041927221416</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9228460560383881</v>
+        <v>0.9198892697333109</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1186</v>
@@ -5462,19 +5462,19 @@
         <v>817549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>803313</v>
+        <v>802857</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>829890</v>
+        <v>829358</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9282456575452014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9120828575148481</v>
+        <v>0.9115647847414736</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9422574995841281</v>
+        <v>0.9416541096975155</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2003</v>
@@ -5483,19 +5483,19 @@
         <v>1674735</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1650033</v>
+        <v>1649370</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1695846</v>
+        <v>1697433</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9147838132275193</v>
+        <v>0.9147838132275194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.901290705759441</v>
+        <v>0.9009290205027473</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9263153263914592</v>
+        <v>0.9271821111024489</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>538440</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>495876</v>
+        <v>497473</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>582068</v>
+        <v>584341</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1608641531182556</v>
+        <v>0.1608641531182557</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.148147995366817</v>
+        <v>0.1486248566338583</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1738984632426615</v>
+        <v>0.1745776319310194</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>676</v>
@@ -5608,19 +5608,19 @@
         <v>413383</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>384429</v>
+        <v>384264</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>444966</v>
+        <v>447265</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1152391937795621</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1071676158741282</v>
+        <v>0.1071218038493837</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.124043788381318</v>
+        <v>0.1246847037539547</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1277</v>
@@ -5629,19 +5629,19 @@
         <v>951822</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>899284</v>
+        <v>902569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1014200</v>
+        <v>1011245</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1372621183962092</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1296855368674502</v>
+        <v>0.1301593232135226</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1462576577525388</v>
+        <v>0.1458314309057605</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2808729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2765101</v>
+        <v>2762828</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2851293</v>
+        <v>2849696</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8391358468817443</v>
+        <v>0.8391358468817446</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8261015367573386</v>
+        <v>0.8254223680689807</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8518520046331829</v>
+        <v>0.8513751433661418</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4484</v>
@@ -5679,19 +5679,19 @@
         <v>3173788</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3142205</v>
+        <v>3139906</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3202742</v>
+        <v>3202907</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8847608062204377</v>
+        <v>0.884760806220438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8759562116186815</v>
+        <v>0.8753152962460453</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8928323841258717</v>
+        <v>0.8928781961506165</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7102</v>
@@ -5700,19 +5700,19 @@
         <v>5982518</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5920140</v>
+        <v>5923095</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6035056</v>
+        <v>6031771</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8627378816037908</v>
+        <v>0.8627378816037907</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8537423422474612</v>
+        <v>0.8541685690942392</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8703144631325498</v>
+        <v>0.8698406767864776</v>
       </c>
     </row>
     <row r="18">
